--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/木材加工和木、竹、藤、棕、草制品业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/木材加工和木、竹、藤、棕、草制品业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,679 +458,679 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.8531</v>
+        <v>100.6637</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5675</v>
+        <v>100.3575</v>
       </c>
       <c r="D2" t="n">
-        <v>100.729</v>
+        <v>99.1003</v>
       </c>
       <c r="E2" t="n">
-        <v>101.5479</v>
+        <v>101.0517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.7596</v>
+        <v>100.5977</v>
       </c>
       <c r="C3" t="n">
-        <v>101.2851</v>
+        <v>100.7632</v>
       </c>
       <c r="D3" t="n">
-        <v>100.8877</v>
+        <v>98.8955</v>
       </c>
       <c r="E3" t="n">
-        <v>101.3929</v>
+        <v>101.4438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.7367</v>
+        <v>100.5728</v>
       </c>
       <c r="C4" t="n">
-        <v>101.1804</v>
+        <v>101.0537</v>
       </c>
       <c r="D4" t="n">
-        <v>100.4943</v>
+        <v>98.2307</v>
       </c>
       <c r="E4" t="n">
-        <v>101.3223</v>
+        <v>101.3284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.6637</v>
+        <v>100.6893</v>
       </c>
       <c r="C5" t="n">
-        <v>100.3575</v>
+        <v>100.8595</v>
       </c>
       <c r="D5" t="n">
-        <v>99.1003</v>
+        <v>98.7805</v>
       </c>
       <c r="E5" t="n">
-        <v>101.0517</v>
+        <v>101.2846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.5977</v>
+        <v>100.9264</v>
       </c>
       <c r="C6" t="n">
-        <v>100.7632</v>
+        <v>101.1263</v>
       </c>
       <c r="D6" t="n">
-        <v>98.8955</v>
+        <v>99.9777</v>
       </c>
       <c r="E6" t="n">
-        <v>101.4438</v>
+        <v>101.3328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.5728</v>
+        <v>101.1784</v>
       </c>
       <c r="C7" t="n">
-        <v>101.0537</v>
+        <v>101.6044</v>
       </c>
       <c r="D7" t="n">
-        <v>98.2307</v>
+        <v>100.9364</v>
       </c>
       <c r="E7" t="n">
-        <v>101.3284</v>
+        <v>101.7981</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.6893</v>
+        <v>101.2158</v>
       </c>
       <c r="C8" t="n">
-        <v>100.8595</v>
+        <v>101.4453</v>
       </c>
       <c r="D8" t="n">
-        <v>98.7805</v>
+        <v>101.0374</v>
       </c>
       <c r="E8" t="n">
-        <v>101.2846</v>
+        <v>101.5359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.9264</v>
+        <v>101.2055</v>
       </c>
       <c r="C9" t="n">
-        <v>101.1263</v>
+        <v>101.6599</v>
       </c>
       <c r="D9" t="n">
-        <v>99.9777</v>
+        <v>100.8022</v>
       </c>
       <c r="E9" t="n">
-        <v>101.3328</v>
+        <v>101.2808</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101.1784</v>
+        <v>101.0528</v>
       </c>
       <c r="C10" t="n">
-        <v>101.6044</v>
+        <v>101.7321</v>
       </c>
       <c r="D10" t="n">
-        <v>100.9364</v>
+        <v>100.9548</v>
       </c>
       <c r="E10" t="n">
-        <v>101.7981</v>
+        <v>101.3535</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.2158</v>
+        <v>100.8531</v>
       </c>
       <c r="C11" t="n">
-        <v>101.4453</v>
+        <v>101.5675</v>
       </c>
       <c r="D11" t="n">
-        <v>101.0374</v>
+        <v>100.729</v>
       </c>
       <c r="E11" t="n">
-        <v>101.5359</v>
+        <v>101.5479</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.2055</v>
+        <v>100.7596</v>
       </c>
       <c r="C12" t="n">
-        <v>101.6599</v>
+        <v>101.2851</v>
       </c>
       <c r="D12" t="n">
-        <v>100.8022</v>
+        <v>100.8877</v>
       </c>
       <c r="E12" t="n">
-        <v>101.2808</v>
+        <v>101.3929</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.0528</v>
+        <v>100.7367</v>
       </c>
       <c r="C13" t="n">
-        <v>101.7321</v>
+        <v>101.1804</v>
       </c>
       <c r="D13" t="n">
-        <v>100.9548</v>
+        <v>100.4943</v>
       </c>
       <c r="E13" t="n">
-        <v>101.3535</v>
+        <v>101.3223</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.7</v>
+        <v>100.4977</v>
       </c>
       <c r="C14" t="n">
-        <v>99.90000000000001</v>
+        <v>100.8541</v>
       </c>
       <c r="D14" t="n">
-        <v>100.4</v>
+        <v>100.9953</v>
       </c>
       <c r="E14" t="n">
-        <v>100.8</v>
+        <v>101.1924</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.5077</v>
+        <v>100.3087</v>
       </c>
       <c r="C15" t="n">
-        <v>99.94410000000001</v>
+        <v>100.5938</v>
       </c>
       <c r="D15" t="n">
-        <v>100.4622</v>
+        <v>101.2691</v>
       </c>
       <c r="E15" t="n">
-        <v>100.8569</v>
+        <v>101.1757</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.2342</v>
+        <v>100.3026</v>
       </c>
       <c r="C16" t="n">
-        <v>99.9208</v>
+        <v>100.4804</v>
       </c>
       <c r="D16" t="n">
-        <v>100.5141</v>
+        <v>101.9081</v>
       </c>
       <c r="E16" t="n">
-        <v>100.7889</v>
+        <v>101.129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.4977</v>
+        <v>99.9843</v>
       </c>
       <c r="C17" t="n">
-        <v>100.8541</v>
+        <v>100.558</v>
       </c>
       <c r="D17" t="n">
-        <v>100.9953</v>
+        <v>101.7053</v>
       </c>
       <c r="E17" t="n">
-        <v>101.1924</v>
+        <v>101.1546</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.3087</v>
+        <v>99.6872</v>
       </c>
       <c r="C18" t="n">
-        <v>100.5938</v>
+        <v>100.3196</v>
       </c>
       <c r="D18" t="n">
-        <v>101.2691</v>
+        <v>100.5475</v>
       </c>
       <c r="E18" t="n">
-        <v>101.1757</v>
+        <v>101.2052</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.3026</v>
+        <v>99.342</v>
       </c>
       <c r="C19" t="n">
-        <v>100.4804</v>
+        <v>100.218</v>
       </c>
       <c r="D19" t="n">
-        <v>101.9081</v>
+        <v>100.3658</v>
       </c>
       <c r="E19" t="n">
-        <v>101.129</v>
+        <v>100.9775</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.9843</v>
+        <v>99.1606</v>
       </c>
       <c r="C20" t="n">
-        <v>100.558</v>
+        <v>100.239</v>
       </c>
       <c r="D20" t="n">
-        <v>101.7053</v>
+        <v>100.5864</v>
       </c>
       <c r="E20" t="n">
-        <v>101.1546</v>
+        <v>100.8794</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.6872</v>
+        <v>98.97199999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>100.3196</v>
+        <v>99.7859</v>
       </c>
       <c r="D21" t="n">
-        <v>100.5475</v>
+        <v>100.3963</v>
       </c>
       <c r="E21" t="n">
-        <v>101.2052</v>
+        <v>101.0075</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.342</v>
+        <v>98.92019999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>100.218</v>
+        <v>99.988</v>
       </c>
       <c r="D22" t="n">
-        <v>100.3658</v>
+        <v>100.2774</v>
       </c>
       <c r="E22" t="n">
-        <v>100.9775</v>
+        <v>101.408</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.1606</v>
+        <v>98.7</v>
       </c>
       <c r="C23" t="n">
-        <v>100.239</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>100.5864</v>
+        <v>100.4</v>
       </c>
       <c r="E23" t="n">
-        <v>100.8794</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.97199999999999</v>
+        <v>98.5077</v>
       </c>
       <c r="C24" t="n">
-        <v>99.7859</v>
+        <v>99.94410000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>100.3963</v>
+        <v>100.4622</v>
       </c>
       <c r="E24" t="n">
-        <v>101.0075</v>
+        <v>100.8569</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.92019999999999</v>
+        <v>98.2342</v>
       </c>
       <c r="C25" t="n">
-        <v>99.988</v>
+        <v>99.9208</v>
       </c>
       <c r="D25" t="n">
-        <v>100.2774</v>
+        <v>100.5141</v>
       </c>
       <c r="E25" t="n">
-        <v>101.408</v>
+        <v>100.7889</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>99.8</v>
+        <v>98.7195</v>
       </c>
       <c r="C26" t="n">
-        <v>100.2</v>
+        <v>100.2892</v>
       </c>
       <c r="D26" t="n">
-        <v>100.2</v>
+        <v>99.7312</v>
       </c>
       <c r="E26" t="n">
-        <v>100.6</v>
+        <v>100.4738</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100</v>
+        <v>98.66</v>
       </c>
       <c r="C27" t="n">
-        <v>100.3</v>
+        <v>100.224</v>
       </c>
       <c r="D27" t="n">
-        <v>100.1</v>
+        <v>99.4263</v>
       </c>
       <c r="E27" t="n">
-        <v>100.7</v>
+        <v>100.7599</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.4</v>
+        <v>98.5433</v>
       </c>
       <c r="C28" t="n">
-        <v>100.5</v>
+        <v>100.1226</v>
       </c>
       <c r="D28" t="n">
-        <v>100</v>
+        <v>99.23090000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>100.8</v>
+        <v>101.5232</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.7195</v>
+        <v>98.6648</v>
       </c>
       <c r="C29" t="n">
-        <v>100.2892</v>
+        <v>100.1051</v>
       </c>
       <c r="D29" t="n">
-        <v>99.7312</v>
+        <v>99.3313</v>
       </c>
       <c r="E29" t="n">
-        <v>100.4738</v>
+        <v>101.591</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.66</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>100.224</v>
+        <v>100.4</v>
       </c>
       <c r="D30" t="n">
-        <v>99.4263</v>
+        <v>100.3</v>
       </c>
       <c r="E30" t="n">
-        <v>100.7599</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.5433</v>
+        <v>99.2</v>
       </c>
       <c r="C31" t="n">
-        <v>100.1226</v>
+        <v>100.4</v>
       </c>
       <c r="D31" t="n">
-        <v>99.23090000000001</v>
+        <v>100.1</v>
       </c>
       <c r="E31" t="n">
-        <v>101.5232</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.6648</v>
+        <v>100.5</v>
       </c>
       <c r="C32" t="n">
-        <v>100.1051</v>
+        <v>100.3</v>
       </c>
       <c r="D32" t="n">
-        <v>99.3313</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>101.591</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="C33" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="D33" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="E33" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="C34" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="D34" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="E34" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="C35" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="D35" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="E35" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="C36" t="n">
         <v>100.3</v>
       </c>
       <c r="D36" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="E36" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.5</v>
+        <v>100.4</v>
       </c>
       <c r="C37" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="D37" t="n">
         <v>100</v>
@@ -1142,229 +1142,229 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>101.2</v>
+        <v>100.3</v>
       </c>
       <c r="C38" t="n">
-        <v>100.9</v>
+        <v>100.1</v>
       </c>
       <c r="D38" t="n">
-        <v>99.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="E38" t="n">
-        <v>99.90000000000001</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>101.4</v>
+        <v>100.1</v>
       </c>
       <c r="C39" t="n">
-        <v>101</v>
+        <v>100.1</v>
       </c>
       <c r="D39" t="n">
-        <v>99.09999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="E39" t="n">
-        <v>99.8</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101.8</v>
+        <v>100.7</v>
       </c>
       <c r="C40" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="D40" t="n">
-        <v>98.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="E40" t="n">
-        <v>99.59999999999999</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="C41" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>100.8</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B42" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="C42" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E42" t="n">
         <v>100.1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="E42" t="n">
-        <v>100.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="C43" t="n">
-        <v>100.4</v>
+        <v>99.8</v>
       </c>
       <c r="D43" t="n">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
       <c r="E43" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.9</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C44" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="C45" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="D45" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="E45" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="C46" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="D46" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>99.59999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="C47" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E47" t="n">
         <v>99.90000000000001</v>
-      </c>
-      <c r="D47" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E47" t="n">
-        <v>100.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>100.5</v>
+        <v>101.4</v>
       </c>
       <c r="C48" t="n">
-        <v>100.2</v>
+        <v>101</v>
       </c>
       <c r="D48" t="n">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.9</v>
+        <v>101.8</v>
       </c>
       <c r="C49" t="n">
-        <v>100.5</v>
+        <v>101.1</v>
       </c>
       <c r="D49" t="n">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/木材加工和木、竹、藤、棕、草制品业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/木材加工和木、竹、藤、棕、草制品业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,679 +458,679 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.6637</v>
+        <v>100.8531</v>
       </c>
       <c r="C2" t="n">
-        <v>100.3575</v>
+        <v>101.5675</v>
       </c>
       <c r="D2" t="n">
-        <v>99.1003</v>
+        <v>100.729</v>
       </c>
       <c r="E2" t="n">
-        <v>101.0517</v>
+        <v>101.5479</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.5977</v>
+        <v>100.7596</v>
       </c>
       <c r="C3" t="n">
-        <v>100.7632</v>
+        <v>101.2851</v>
       </c>
       <c r="D3" t="n">
-        <v>98.8955</v>
+        <v>100.8877</v>
       </c>
       <c r="E3" t="n">
-        <v>101.4438</v>
+        <v>101.3929</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.5728</v>
+        <v>100.7367</v>
       </c>
       <c r="C4" t="n">
-        <v>101.0537</v>
+        <v>101.1804</v>
       </c>
       <c r="D4" t="n">
-        <v>98.2307</v>
+        <v>100.4943</v>
       </c>
       <c r="E4" t="n">
-        <v>101.3284</v>
+        <v>101.3223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.6893</v>
+        <v>100.6637</v>
       </c>
       <c r="C5" t="n">
-        <v>100.8595</v>
+        <v>100.3575</v>
       </c>
       <c r="D5" t="n">
-        <v>98.7805</v>
+        <v>99.1003</v>
       </c>
       <c r="E5" t="n">
-        <v>101.2846</v>
+        <v>101.0517</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.9264</v>
+        <v>100.5977</v>
       </c>
       <c r="C6" t="n">
-        <v>101.1263</v>
+        <v>100.7632</v>
       </c>
       <c r="D6" t="n">
-        <v>99.9777</v>
+        <v>98.8955</v>
       </c>
       <c r="E6" t="n">
-        <v>101.3328</v>
+        <v>101.4438</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.1784</v>
+        <v>100.5728</v>
       </c>
       <c r="C7" t="n">
-        <v>101.6044</v>
+        <v>101.0537</v>
       </c>
       <c r="D7" t="n">
-        <v>100.9364</v>
+        <v>98.2307</v>
       </c>
       <c r="E7" t="n">
-        <v>101.7981</v>
+        <v>101.3284</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101.2158</v>
+        <v>100.6893</v>
       </c>
       <c r="C8" t="n">
-        <v>101.4453</v>
+        <v>100.8595</v>
       </c>
       <c r="D8" t="n">
-        <v>101.0374</v>
+        <v>98.7805</v>
       </c>
       <c r="E8" t="n">
-        <v>101.5359</v>
+        <v>101.2846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101.2055</v>
+        <v>100.9264</v>
       </c>
       <c r="C9" t="n">
-        <v>101.6599</v>
+        <v>101.1263</v>
       </c>
       <c r="D9" t="n">
-        <v>100.8022</v>
+        <v>99.9777</v>
       </c>
       <c r="E9" t="n">
-        <v>101.2808</v>
+        <v>101.3328</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101.0528</v>
+        <v>101.1784</v>
       </c>
       <c r="C10" t="n">
-        <v>101.7321</v>
+        <v>101.6044</v>
       </c>
       <c r="D10" t="n">
-        <v>100.9548</v>
+        <v>100.9364</v>
       </c>
       <c r="E10" t="n">
-        <v>101.3535</v>
+        <v>101.7981</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.8531</v>
+        <v>101.2158</v>
       </c>
       <c r="C11" t="n">
-        <v>101.5675</v>
+        <v>101.4453</v>
       </c>
       <c r="D11" t="n">
-        <v>100.729</v>
+        <v>101.0374</v>
       </c>
       <c r="E11" t="n">
-        <v>101.5479</v>
+        <v>101.5359</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.7596</v>
+        <v>101.2055</v>
       </c>
       <c r="C12" t="n">
-        <v>101.2851</v>
+        <v>101.6599</v>
       </c>
       <c r="D12" t="n">
-        <v>100.8877</v>
+        <v>100.8022</v>
       </c>
       <c r="E12" t="n">
-        <v>101.3929</v>
+        <v>101.2808</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.7367</v>
+        <v>101.0528</v>
       </c>
       <c r="C13" t="n">
-        <v>101.1804</v>
+        <v>101.7321</v>
       </c>
       <c r="D13" t="n">
-        <v>100.4943</v>
+        <v>100.9548</v>
       </c>
       <c r="E13" t="n">
-        <v>101.3223</v>
+        <v>101.3535</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.4977</v>
+        <v>98.7</v>
       </c>
       <c r="C14" t="n">
-        <v>100.8541</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>100.9953</v>
+        <v>100.4</v>
       </c>
       <c r="E14" t="n">
-        <v>101.1924</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.3087</v>
+        <v>98.5077</v>
       </c>
       <c r="C15" t="n">
-        <v>100.5938</v>
+        <v>99.94410000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>101.2691</v>
+        <v>100.4622</v>
       </c>
       <c r="E15" t="n">
-        <v>101.1757</v>
+        <v>100.8569</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.3026</v>
+        <v>98.2342</v>
       </c>
       <c r="C16" t="n">
-        <v>100.4804</v>
+        <v>99.9208</v>
       </c>
       <c r="D16" t="n">
-        <v>101.9081</v>
+        <v>100.5141</v>
       </c>
       <c r="E16" t="n">
-        <v>101.129</v>
+        <v>100.7889</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.9843</v>
+        <v>100.4977</v>
       </c>
       <c r="C17" t="n">
-        <v>100.558</v>
+        <v>100.8541</v>
       </c>
       <c r="D17" t="n">
-        <v>101.7053</v>
+        <v>100.9953</v>
       </c>
       <c r="E17" t="n">
-        <v>101.1546</v>
+        <v>101.1924</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.6872</v>
+        <v>100.3087</v>
       </c>
       <c r="C18" t="n">
-        <v>100.3196</v>
+        <v>100.5938</v>
       </c>
       <c r="D18" t="n">
-        <v>100.5475</v>
+        <v>101.2691</v>
       </c>
       <c r="E18" t="n">
-        <v>101.2052</v>
+        <v>101.1757</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.342</v>
+        <v>100.3026</v>
       </c>
       <c r="C19" t="n">
-        <v>100.218</v>
+        <v>100.4804</v>
       </c>
       <c r="D19" t="n">
-        <v>100.3658</v>
+        <v>101.9081</v>
       </c>
       <c r="E19" t="n">
-        <v>100.9775</v>
+        <v>101.129</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.1606</v>
+        <v>99.9843</v>
       </c>
       <c r="C20" t="n">
-        <v>100.239</v>
+        <v>100.558</v>
       </c>
       <c r="D20" t="n">
-        <v>100.5864</v>
+        <v>101.7053</v>
       </c>
       <c r="E20" t="n">
-        <v>100.8794</v>
+        <v>101.1546</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.97199999999999</v>
+        <v>99.6872</v>
       </c>
       <c r="C21" t="n">
-        <v>99.7859</v>
+        <v>100.3196</v>
       </c>
       <c r="D21" t="n">
-        <v>100.3963</v>
+        <v>100.5475</v>
       </c>
       <c r="E21" t="n">
-        <v>101.0075</v>
+        <v>101.2052</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.92019999999999</v>
+        <v>99.342</v>
       </c>
       <c r="C22" t="n">
-        <v>99.988</v>
+        <v>100.218</v>
       </c>
       <c r="D22" t="n">
-        <v>100.2774</v>
+        <v>100.3658</v>
       </c>
       <c r="E22" t="n">
-        <v>101.408</v>
+        <v>100.9775</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98.7</v>
+        <v>99.1606</v>
       </c>
       <c r="C23" t="n">
-        <v>99.90000000000001</v>
+        <v>100.239</v>
       </c>
       <c r="D23" t="n">
-        <v>100.4</v>
+        <v>100.5864</v>
       </c>
       <c r="E23" t="n">
-        <v>100.8</v>
+        <v>100.8794</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.5077</v>
+        <v>98.97199999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>99.94410000000001</v>
+        <v>99.7859</v>
       </c>
       <c r="D24" t="n">
-        <v>100.4622</v>
+        <v>100.3963</v>
       </c>
       <c r="E24" t="n">
-        <v>100.8569</v>
+        <v>101.0075</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.2342</v>
+        <v>98.92019999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>99.9208</v>
+        <v>99.988</v>
       </c>
       <c r="D25" t="n">
-        <v>100.5141</v>
+        <v>100.2774</v>
       </c>
       <c r="E25" t="n">
-        <v>100.7889</v>
+        <v>101.408</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.7195</v>
+        <v>99.8</v>
       </c>
       <c r="C26" t="n">
-        <v>100.2892</v>
+        <v>100.2</v>
       </c>
       <c r="D26" t="n">
-        <v>99.7312</v>
+        <v>100.2</v>
       </c>
       <c r="E26" t="n">
-        <v>100.4738</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.66</v>
+        <v>100</v>
       </c>
       <c r="C27" t="n">
-        <v>100.224</v>
+        <v>100.3</v>
       </c>
       <c r="D27" t="n">
-        <v>99.4263</v>
+        <v>100.1</v>
       </c>
       <c r="E27" t="n">
-        <v>100.7599</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.5433</v>
+        <v>100.4</v>
       </c>
       <c r="C28" t="n">
-        <v>100.1226</v>
+        <v>100.5</v>
       </c>
       <c r="D28" t="n">
-        <v>99.23090000000001</v>
+        <v>100</v>
       </c>
       <c r="E28" t="n">
-        <v>101.5232</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.6648</v>
+        <v>98.7195</v>
       </c>
       <c r="C29" t="n">
-        <v>100.1051</v>
+        <v>100.2892</v>
       </c>
       <c r="D29" t="n">
-        <v>99.3313</v>
+        <v>99.7312</v>
       </c>
       <c r="E29" t="n">
-        <v>101.591</v>
+        <v>100.4738</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.90000000000001</v>
+        <v>98.66</v>
       </c>
       <c r="C30" t="n">
-        <v>100.4</v>
+        <v>100.224</v>
       </c>
       <c r="D30" t="n">
-        <v>100.3</v>
+        <v>99.4263</v>
       </c>
       <c r="E30" t="n">
-        <v>101.1</v>
+        <v>100.7599</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.2</v>
+        <v>98.5433</v>
       </c>
       <c r="C31" t="n">
-        <v>100.4</v>
+        <v>100.1226</v>
       </c>
       <c r="D31" t="n">
-        <v>100.1</v>
+        <v>99.23090000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>101.1</v>
+        <v>101.5232</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.5</v>
+        <v>98.6648</v>
       </c>
       <c r="C32" t="n">
-        <v>100.3</v>
+        <v>100.1051</v>
       </c>
       <c r="D32" t="n">
-        <v>99.90000000000001</v>
+        <v>99.3313</v>
       </c>
       <c r="E32" t="n">
-        <v>100.9</v>
+        <v>101.591</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>99.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C33" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="D33" t="n">
         <v>100.3</v>
       </c>
-      <c r="D33" t="n">
-        <v>100</v>
-      </c>
       <c r="E33" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="C34" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="D34" t="n">
         <v>100.1</v>
       </c>
-      <c r="D34" t="n">
-        <v>100</v>
-      </c>
       <c r="E34" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="C35" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D35" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>100.6</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="C36" t="n">
         <v>100.3</v>
       </c>
       <c r="D36" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="E36" t="n">
-        <v>100.7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.4</v>
+        <v>99.5</v>
       </c>
       <c r="C37" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="D37" t="n">
         <v>100</v>
@@ -1142,229 +1142,229 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.3</v>
+        <v>101.2</v>
       </c>
       <c r="C38" t="n">
-        <v>100.1</v>
+        <v>100.9</v>
       </c>
       <c r="D38" t="n">
-        <v>100.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>100.8</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.1</v>
+        <v>101.4</v>
       </c>
       <c r="C39" t="n">
-        <v>100.1</v>
+        <v>101</v>
       </c>
       <c r="D39" t="n">
-        <v>100.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>100.6</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.7</v>
+        <v>101.8</v>
       </c>
       <c r="C40" t="n">
-        <v>100.4</v>
+        <v>101.1</v>
       </c>
       <c r="D40" t="n">
-        <v>100.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>100.3</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.9</v>
+        <v>100.3</v>
       </c>
       <c r="C41" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="D41" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="E41" t="n">
-        <v>99.8</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.9</v>
+        <v>100.1</v>
       </c>
       <c r="C42" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="D42" t="n">
-        <v>99.59999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="E42" t="n">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="C43" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="D43" t="n">
-        <v>99.5</v>
+        <v>100.2</v>
       </c>
       <c r="E43" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.59999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="C44" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
       <c r="C45" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="D45" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="C46" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="D46" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="E46" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>101.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>100.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>101.4</v>
+        <v>100.5</v>
       </c>
       <c r="C48" t="n">
-        <v>101</v>
+        <v>100.2</v>
       </c>
       <c r="D48" t="n">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="E48" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>101.8</v>
+        <v>100.9</v>
       </c>
       <c r="C49" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="D49" t="n">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
     </row>
   </sheetData>
